--- a/src/potraty-umrtnost.xlsx
+++ b/src/potraty-umrtnost.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="13995"/>
   </bookViews>
   <sheets>
-    <sheet name="DATA" sheetId="1" r:id="rId1"/>
-    <sheet name="UKAZATELE" sheetId="2" r:id="rId2"/>
-    <sheet name="METAINFORMACE" sheetId="3" r:id="rId3"/>
+    <sheet name="src" sheetId="4" r:id="rId1"/>
+    <sheet name="DATA" sheetId="1" r:id="rId2"/>
+    <sheet name="UKAZATELE" sheetId="2" r:id="rId3"/>
+    <sheet name="METAINFORMACE" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="257">
   <si>
     <t>Data z Veřejné databáze ČSU</t>
   </si>
@@ -790,6 +791,12 @@
   </si>
   <si>
     <t>Český statistický úřad, Veřejná databáze</t>
+  </si>
+  <si>
+    <t>okres</t>
+  </si>
+  <si>
+    <t>potraty</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1002,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1051,6 +1058,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1427,9 +1435,830 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>DATA!B9</f>
+        <v>Hlavní město Praha</v>
+      </c>
+      <c r="B2">
+        <f>DATA!C9</f>
+        <v>26.202052944399998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="str">
+        <f>DATA!B11</f>
+        <v>Benešov</v>
+      </c>
+      <c r="B3" s="21">
+        <f>DATA!C11</f>
+        <v>31.684981685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="str">
+        <f>DATA!B12</f>
+        <v>Beroun</v>
+      </c>
+      <c r="B4" s="21">
+        <f>DATA!C12</f>
+        <v>29.305423406300001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="str">
+        <f>DATA!B13</f>
+        <v>Kladno</v>
+      </c>
+      <c r="B5" s="21">
+        <f>DATA!C13</f>
+        <v>42.368886269900003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="str">
+        <f>DATA!B14</f>
+        <v>Kolín</v>
+      </c>
+      <c r="B6" s="21">
+        <f>DATA!C14</f>
+        <v>32.921027592800002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="str">
+        <f>DATA!B15</f>
+        <v>Kutná Hora</v>
+      </c>
+      <c r="B7" s="21">
+        <f>DATA!C15</f>
+        <v>28.048780487799998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="str">
+        <f>DATA!B16</f>
+        <v>Mělník</v>
+      </c>
+      <c r="B8" s="21">
+        <f>DATA!C16</f>
+        <v>38.260869565199997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="str">
+        <f>DATA!B17</f>
+        <v>Mladá Boleslav</v>
+      </c>
+      <c r="B9" s="21">
+        <f>DATA!C17</f>
+        <v>32.172596517800002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="str">
+        <f>DATA!B18</f>
+        <v>Nymburk</v>
+      </c>
+      <c r="B10" s="21">
+        <f>DATA!C18</f>
+        <v>28.225024248299999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="str">
+        <f>DATA!B19</f>
+        <v>Praha-východ</v>
+      </c>
+      <c r="B11" s="21">
+        <f>DATA!C19</f>
+        <v>26.7689262741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="str">
+        <f>DATA!B20</f>
+        <v>Praha-západ</v>
+      </c>
+      <c r="B12" s="21">
+        <f>DATA!C20</f>
+        <v>24.486094316799999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="str">
+        <f>DATA!B21</f>
+        <v>Příbram</v>
+      </c>
+      <c r="B13" s="21">
+        <f>DATA!C21</f>
+        <v>33.304721030000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="str">
+        <f>DATA!B22</f>
+        <v>Rakovník</v>
+      </c>
+      <c r="B14" s="21">
+        <f>DATA!C22</f>
+        <v>34.179357021999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="str">
+        <f>DATA!B24</f>
+        <v>České Budějovice</v>
+      </c>
+      <c r="B15" s="21">
+        <f>DATA!C24</f>
+        <v>34.4859813084</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="str">
+        <f>DATA!B25</f>
+        <v>Český Krumlov</v>
+      </c>
+      <c r="B16" s="21">
+        <f>DATA!C25</f>
+        <v>41.158989598799998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="str">
+        <f>DATA!B26</f>
+        <v>Jindřichův Hradec</v>
+      </c>
+      <c r="B17" s="21">
+        <f>DATA!C26</f>
+        <v>33.934611048500003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="str">
+        <f>DATA!B27</f>
+        <v>Písek</v>
+      </c>
+      <c r="B18" s="21">
+        <f>DATA!C27</f>
+        <v>31.9543509272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="str">
+        <f>DATA!B28</f>
+        <v>Prachatice</v>
+      </c>
+      <c r="B19" s="21">
+        <f>DATA!C28</f>
+        <v>28.462998102499999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="str">
+        <f>DATA!B29</f>
+        <v>Strakonice</v>
+      </c>
+      <c r="B20" s="21">
+        <f>DATA!C29</f>
+        <v>25.034965034999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="str">
+        <f>DATA!B30</f>
+        <v>Tábor</v>
+      </c>
+      <c r="B21" s="21">
+        <f>DATA!C30</f>
+        <v>38.922764227599998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="str">
+        <f>DATA!B32</f>
+        <v>Domažlice</v>
+      </c>
+      <c r="B22" s="21">
+        <f>DATA!C32</f>
+        <v>38.6503067485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="str">
+        <f>DATA!B33</f>
+        <v>Klatovy</v>
+      </c>
+      <c r="B23" s="21">
+        <f>DATA!C33</f>
+        <v>40.1763224181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="str">
+        <f>DATA!B34</f>
+        <v>Plzeň-město</v>
+      </c>
+      <c r="B24" s="21">
+        <f>DATA!C34</f>
+        <v>29.4030587074</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="str">
+        <f>DATA!B35</f>
+        <v>Plzeň-jih</v>
+      </c>
+      <c r="B25" s="21">
+        <f>DATA!C35</f>
+        <v>36.507936507899998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="str">
+        <f>DATA!B36</f>
+        <v>Plzeň-sever</v>
+      </c>
+      <c r="B26" s="21">
+        <f>DATA!C36</f>
+        <v>31.242460796100001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="str">
+        <f>DATA!B37</f>
+        <v>Rokycany</v>
+      </c>
+      <c r="B27" s="21">
+        <f>DATA!C37</f>
+        <v>36.919831223599999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="str">
+        <f>DATA!B38</f>
+        <v>Tachov</v>
+      </c>
+      <c r="B28" s="21">
+        <f>DATA!C38</f>
+        <v>40.560747663599997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="str">
+        <f>DATA!B40</f>
+        <v>Cheb</v>
+      </c>
+      <c r="B29" s="21">
+        <f>DATA!C40</f>
+        <v>47.086247086199997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="str">
+        <f>DATA!B41</f>
+        <v>Karlovy Vary</v>
+      </c>
+      <c r="B30" s="21">
+        <f>DATA!C41</f>
+        <v>33.496571988200003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="str">
+        <f>DATA!B42</f>
+        <v>Sokolov</v>
+      </c>
+      <c r="B31" s="21">
+        <f>DATA!C42</f>
+        <v>35.3899883586</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="str">
+        <f>DATA!B44</f>
+        <v>Děčín</v>
+      </c>
+      <c r="B32" s="21">
+        <f>DATA!C44</f>
+        <v>40.926347760100001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="str">
+        <f>DATA!B45</f>
+        <v>Chomutov</v>
+      </c>
+      <c r="B33" s="21">
+        <f>DATA!C45</f>
+        <v>47.330097087399999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="str">
+        <f>DATA!B46</f>
+        <v>Litoměřice</v>
+      </c>
+      <c r="B34" s="21">
+        <f>DATA!C46</f>
+        <v>38.015873015899999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="str">
+        <f>DATA!B47</f>
+        <v>Louny</v>
+      </c>
+      <c r="B35" s="21">
+        <f>DATA!C47</f>
+        <v>44.419889502799997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="str">
+        <f>DATA!B48</f>
+        <v>Most</v>
+      </c>
+      <c r="B36" s="21">
+        <f>DATA!C48</f>
+        <v>49.373881932000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="str">
+        <f>DATA!B49</f>
+        <v>Teplice</v>
+      </c>
+      <c r="B37" s="21">
+        <f>DATA!C49</f>
+        <v>48.897959183700003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="str">
+        <f>DATA!B50</f>
+        <v>Ústí nad Labem</v>
+      </c>
+      <c r="B38" s="21">
+        <f>DATA!C50</f>
+        <v>41.130906274200001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="21" t="str">
+        <f>DATA!B52</f>
+        <v>Česká Lípa</v>
+      </c>
+      <c r="B39" s="21">
+        <f>DATA!C52</f>
+        <v>45.428840716300002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="str">
+        <f>DATA!B53</f>
+        <v>Jablonec nad Nisou</v>
+      </c>
+      <c r="B40" s="21">
+        <f>DATA!C53</f>
+        <v>46.1699895068</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="str">
+        <f>DATA!B54</f>
+        <v>Liberec</v>
+      </c>
+      <c r="B41" s="21">
+        <f>DATA!C54</f>
+        <v>37.801746276300001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="str">
+        <f>DATA!B55</f>
+        <v>Semily</v>
+      </c>
+      <c r="B42" s="21">
+        <f>DATA!C55</f>
+        <v>29.8788694482</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="str">
+        <f>DATA!B57</f>
+        <v>Hradec Králové</v>
+      </c>
+      <c r="B43" s="21">
+        <f>DATA!C57</f>
+        <v>29.994141769199999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="str">
+        <f>DATA!B58</f>
+        <v>Jičín</v>
+      </c>
+      <c r="B44" s="21">
+        <f>DATA!C58</f>
+        <v>28.935185185200002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="str">
+        <f>DATA!B59</f>
+        <v>Náchod</v>
+      </c>
+      <c r="B45" s="21">
+        <f>DATA!C59</f>
+        <v>32.624113475199998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="str">
+        <f>DATA!B60</f>
+        <v>Rychnov nad Kněžnou</v>
+      </c>
+      <c r="B46" s="21">
+        <f>DATA!C60</f>
+        <v>30.788177339899999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="str">
+        <f>DATA!B61</f>
+        <v>Trutnov</v>
+      </c>
+      <c r="B47" s="21">
+        <f>DATA!C61</f>
+        <v>39.457013574699999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="str">
+        <f>DATA!B63</f>
+        <v>Chrudim</v>
+      </c>
+      <c r="B48" s="21">
+        <f>DATA!C63</f>
+        <v>29.217719132900001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="str">
+        <f>DATA!B64</f>
+        <v>Pardubice</v>
+      </c>
+      <c r="B49" s="21">
+        <f>DATA!C64</f>
+        <v>23.385300668199999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="21" t="str">
+        <f>DATA!B65</f>
+        <v>Svitavy</v>
+      </c>
+      <c r="B50" s="21">
+        <f>DATA!C65</f>
+        <v>32.560386473400001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="21" t="str">
+        <f>DATA!B66</f>
+        <v>Ústí nad Orlicí</v>
+      </c>
+      <c r="B51" s="21">
+        <f>DATA!C66</f>
+        <v>29.887482419099999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="21" t="str">
+        <f>DATA!B68</f>
+        <v>Havlíčkův Brod</v>
+      </c>
+      <c r="B52" s="21">
+        <f>DATA!C68</f>
+        <v>30.558482613300001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="21" t="str">
+        <f>DATA!B69</f>
+        <v>Jihlava</v>
+      </c>
+      <c r="B53" s="21">
+        <f>DATA!C69</f>
+        <v>25.4398826979</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="21" t="str">
+        <f>DATA!B70</f>
+        <v>Pelhřimov</v>
+      </c>
+      <c r="B54" s="21">
+        <f>DATA!C70</f>
+        <v>33.193277310900001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="21" t="str">
+        <f>DATA!B71</f>
+        <v>Třebíč</v>
+      </c>
+      <c r="B55" s="21">
+        <f>DATA!C71</f>
+        <v>27.526132404199998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="21" t="str">
+        <f>DATA!B72</f>
+        <v>Žďár nad Sázavou</v>
+      </c>
+      <c r="B56" s="21">
+        <f>DATA!C72</f>
+        <v>29.722921914400001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="21" t="str">
+        <f>DATA!B74</f>
+        <v>Blansko</v>
+      </c>
+      <c r="B57" s="21">
+        <f>DATA!C74</f>
+        <v>31.5602836879</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="21" t="str">
+        <f>DATA!B75</f>
+        <v>Brno-město</v>
+      </c>
+      <c r="B58" s="21">
+        <f>DATA!C75</f>
+        <v>28.319384754600001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="21" t="str">
+        <f>DATA!B76</f>
+        <v>Brno-venkov</v>
+      </c>
+      <c r="B59" s="21">
+        <f>DATA!C76</f>
+        <v>24.8129184718</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="21" t="str">
+        <f>DATA!B77</f>
+        <v>Břeclav</v>
+      </c>
+      <c r="B60" s="21">
+        <f>DATA!C77</f>
+        <v>33.4229390681</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="21" t="str">
+        <f>DATA!B78</f>
+        <v>Hodonín</v>
+      </c>
+      <c r="B61" s="21">
+        <f>DATA!C78</f>
+        <v>31.746031746</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="21" t="str">
+        <f>DATA!B79</f>
+        <v>Vyškov</v>
+      </c>
+      <c r="B62" s="21">
+        <f>DATA!C79</f>
+        <v>30.3534303534</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="21" t="str">
+        <f>DATA!B80</f>
+        <v>Znojmo</v>
+      </c>
+      <c r="B63" s="21">
+        <f>DATA!C80</f>
+        <v>33.943427620599998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="21" t="str">
+        <f>DATA!B82</f>
+        <v>Jeseník</v>
+      </c>
+      <c r="B64" s="21">
+        <f>DATA!C82</f>
+        <v>36.857142857100001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="21" t="str">
+        <f>DATA!B83</f>
+        <v>Olomouc</v>
+      </c>
+      <c r="B65" s="21">
+        <f>DATA!C83</f>
+        <v>28.9128758674</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="21" t="str">
+        <f>DATA!B84</f>
+        <v>Prostějov</v>
+      </c>
+      <c r="B66" s="21">
+        <f>DATA!C84</f>
+        <v>31.0931899642</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="21" t="str">
+        <f>DATA!B85</f>
+        <v>Přerov</v>
+      </c>
+      <c r="B67" s="21">
+        <f>DATA!C85</f>
+        <v>29.377593360999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="21" t="str">
+        <f>DATA!B86</f>
+        <v>Šumperk</v>
+      </c>
+      <c r="B68" s="21">
+        <f>DATA!C86</f>
+        <v>31.767515923600001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="21" t="str">
+        <f>DATA!B88</f>
+        <v>Kroměříž</v>
+      </c>
+      <c r="B69" s="21">
+        <f>DATA!C88</f>
+        <v>35.169082125599999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="21" t="str">
+        <f>DATA!B89</f>
+        <v>Uherské Hradiště</v>
+      </c>
+      <c r="B70" s="21">
+        <f>DATA!C89</f>
+        <v>31.688125894100001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="21" t="str">
+        <f>DATA!B90</f>
+        <v>Vsetín</v>
+      </c>
+      <c r="B71" s="21">
+        <f>DATA!C90</f>
+        <v>28.859060402699999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="21" t="str">
+        <f>DATA!B91</f>
+        <v>Zlín</v>
+      </c>
+      <c r="B72" s="21">
+        <f>DATA!C91</f>
+        <v>30.1391035549</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="21" t="str">
+        <f>DATA!B93</f>
+        <v>Bruntál</v>
+      </c>
+      <c r="B73" s="21">
+        <f>DATA!C93</f>
+        <v>47.218934911200002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="21" t="str">
+        <f>DATA!B94</f>
+        <v>Frýdek-Místek</v>
+      </c>
+      <c r="B74" s="21">
+        <f>DATA!C94</f>
+        <v>30.761859127899999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="21" t="str">
+        <f>DATA!B95</f>
+        <v>Karviná</v>
+      </c>
+      <c r="B75" s="21">
+        <f>DATA!C95</f>
+        <v>39.393939393899998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="21" t="str">
+        <f>DATA!B96</f>
+        <v>Nový Jičín</v>
+      </c>
+      <c r="B76" s="21">
+        <f>DATA!C96</f>
+        <v>24.6540880503</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="21" t="str">
+        <f>DATA!B97</f>
+        <v>Opava</v>
+      </c>
+      <c r="B77" s="21">
+        <f>DATA!C97</f>
+        <v>29.3823038397</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="21" t="str">
+        <f>DATA!B98</f>
+        <v>Ostrava-město</v>
+      </c>
+      <c r="B78" s="21">
+        <f>DATA!C98</f>
+        <v>32.003654080399997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="21"/>
+      <c r="B79" s="21"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="21"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="21"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="21"/>
+      <c r="B84" s="21"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="21"/>
+      <c r="B85" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
@@ -1458,24 +2287,24 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="24" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="22"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3368,7 +4197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -3471,7 +4300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F120"/>
   <sheetViews>
